--- a/config/Language-语言表.xlsx
+++ b/config/Language-语言表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21030" windowHeight="10890" tabRatio="595"/>
+    <workbookView windowWidth="20355" windowHeight="10890" tabRatio="595"/>
   </bookViews>
   <sheets>
     <sheet name="基础配置" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>导出类型</t>
   </si>
@@ -63,15 +63,18 @@
   <si>
     <t>example</t>
   </si>
+  <si>
+    <t>"example"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
@@ -127,21 +130,34 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="华文细黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -149,26 +165,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,19 +181,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="华文细黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="华文中宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="新宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="华文新魏"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -202,101 +281,11 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="华文中宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="华文细黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="华文细黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="华文新魏"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -306,6 +295,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文细黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="华文中宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="0"/>
@@ -314,22 +315,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="新宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="华文中宋"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -339,10 +341,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="华文细黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -369,7 +372,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,157 +405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,25 +423,131 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149906918546098"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="9" tint="0.599993896298105"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,37 +563,39 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <gradientFill degree="90">
-        <stop position="0">
-          <color theme="0"/>
-        </stop>
-        <stop position="1">
-          <color theme="9" tint="0.599993896298105"/>
-        </stop>
-      </gradientFill>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -638,7 +605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,65 +692,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -783,6 +703,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,8 +734,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,6 +785,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -838,224 +808,236 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="10" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="4" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="10" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="4" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="4" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="4" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="8">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="12" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="8" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyAlignment="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" applyAlignment="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="47" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="43" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1097,19 +1079,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -1175,8 +1151,8 @@
     <cellStyle name="我的单元格1" xfId="59"/>
     <cellStyle name="我的单元格3" xfId="60"/>
     <cellStyle name="我的单元格4" xfId="61"/>
-    <cellStyle name="我的外边框" xfId="62"/>
-    <cellStyle name="我的公式2" xfId="63"/>
+    <cellStyle name="我的公式2" xfId="62"/>
+    <cellStyle name="我的外边框" xfId="63"/>
     <cellStyle name="我的链接" xfId="64"/>
     <cellStyle name="我的英文1" xfId="65"/>
     <cellStyle name="我的英文2" xfId="66"/>
@@ -1195,8 +1171,18 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{677a1055-f381-4aad-8291-9c9ac933c71d}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0128b963-3e70-48b6-b8f8-6a8886cfbc04}" revisionId="1" version="3">
   <header guid="{677a1055-f381-4aad-8291-9c9ac933c71d}" dateTime="2020-02-22T11:31:04" maxSheetId="2" userName="willz" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{441c54bc-590f-489f-949f-8ac37ff00d93}" dateTime="2020-02-22T14:26:21" maxSheetId="2" userName="willz" r:id="rId2" minRId="1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0128b963-3e70-48b6-b8f8-6a8886cfbc04}" dateTime="2020-02-22T14:26:28" maxSheetId="2" userName="willz" r:id="rId3">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -1208,10 +1194,50 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <oc r="D6" t="inlineStr">
+      <is>
+        <t>example</t>
+      </is>
+    </oc>
+    <nc r="D6" t="inlineStr">
+      <is>
+        <t>"example"</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="$A5:$XFD1048576" start="0" length="2147483647">
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="$A5:$XFD1048576" start="0" length="2147483647">
+    <dxf>
+      <alignment indent="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="$A5:$XFD1048576" start="0" length="2147483647">
+    <dxf>
+      <alignment indent="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="$A5:$XFD1048576" start="0" length="2147483647">
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{677a1055-f381-4aad-8291-9c9ac933c71d}" name="willz" id="-879029765" dateTime="2020-02-22T11:31:04"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1475,139 +1501,137 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="24.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="1" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
+    <row r="4" customFormat="1" spans="1:5">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="17"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="17"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="17"/>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="17"/>
-      <c r="B10" s="16"/>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="17"/>
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="19"/>
+      <c r="B16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
